--- a/hardware/led_register_mappings_v2.xlsx
+++ b/hardware/led_register_mappings_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF284E8-2E6F-410B-8B4E-A236E55C5993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29270128-0DEB-4671-A4C6-CB7062728D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{54825337-5B42-4940-B27B-8F4016375D87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="233">
   <si>
     <t>COL8</t>
   </si>
@@ -717,10 +717,13 @@
     <t>LED NUM</t>
   </si>
   <si>
-    <t>MATRIX2</t>
-  </si>
-  <si>
     <t>MATRIX 2</t>
+  </si>
+  <si>
+    <t>MATRIX 3</t>
+  </si>
+  <si>
+    <t>MATRIX4</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC9F51E-505F-4752-A582-E5A633FBEC92}">
-  <dimension ref="A1:AF119"/>
+  <dimension ref="A1:AF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
@@ -1165,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1">
@@ -1208,43 +1211,61 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1259,7 +1280,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>147</v>
@@ -1291,16 +1312,36 @@
       <c r="M3" s="1">
         <v>39</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1315,7 +1356,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>146</v>
@@ -1347,16 +1388,36 @@
       <c r="M4" s="1">
         <v>38</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1371,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>145</v>
@@ -1403,16 +1464,36 @@
       <c r="M5" s="1">
         <v>37</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1427,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>144</v>
@@ -1459,16 +1540,36 @@
       <c r="M6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1483,7 +1584,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>143</v>
@@ -1515,16 +1616,36 @@
       <c r="M7" s="1">
         <v>35</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1539,7 +1660,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>142</v>
@@ -1571,16 +1692,36 @@
       <c r="M8" s="1">
         <v>34</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="N8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1595,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>141</v>
@@ -1627,16 +1768,36 @@
       <c r="M9" s="1">
         <v>33</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1651,7 +1812,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>140</v>
@@ -1683,16 +1844,36 @@
       <c r="M10" s="1">
         <v>32</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1707,7 +1888,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>139</v>
@@ -1739,16 +1920,36 @@
       <c r="M11" s="1">
         <v>31</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -1763,7 +1964,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -1795,16 +1996,36 @@
       <c r="M12" s="1">
         <v>30</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -1819,7 +2040,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -1851,16 +2072,36 @@
       <c r="M13" s="1">
         <v>29</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -1875,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>76</v>
@@ -1907,16 +2148,36 @@
       <c r="M14" s="1">
         <v>28</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -1931,7 +2192,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>75</v>
@@ -1963,16 +2224,36 @@
       <c r="M15" s="1">
         <v>27</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -1987,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>74</v>
@@ -2019,16 +2300,36 @@
       <c r="M16" s="1">
         <v>26</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -2043,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -2075,16 +2376,36 @@
       <c r="M17" s="1">
         <v>25</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="N17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2099,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>72</v>
@@ -2131,16 +2452,36 @@
       <c r="M18" s="1">
         <v>24</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -2155,7 +2496,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>71</v>
@@ -2187,16 +2528,36 @@
       <c r="M19" s="1">
         <v>23</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -2211,7 +2572,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>70</v>
@@ -2243,16 +2604,36 @@
       <c r="M20" s="1">
         <v>22</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="N20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -2267,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>69</v>
@@ -2299,16 +2680,36 @@
       <c r="M21" s="1">
         <v>21</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="N21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -2323,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>68</v>
@@ -2355,16 +2756,36 @@
       <c r="M22" s="1">
         <v>20</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -2411,16 +2832,36 @@
       <c r="M23" s="1">
         <v>19</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="N23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
@@ -2435,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
@@ -2467,16 +2908,36 @@
       <c r="M24" s="1">
         <v>18</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -2491,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2523,16 +2984,36 @@
       <c r="M25" s="1">
         <v>17</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="N25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -2547,7 +3028,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>64</v>
@@ -2579,16 +3060,36 @@
       <c r="M26" s="1">
         <v>16</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="N26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
@@ -2603,7 +3104,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>63</v>
@@ -2635,16 +3136,36 @@
       <c r="M27" s="1">
         <v>15</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="N27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
@@ -2659,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>62</v>
@@ -2691,16 +3212,36 @@
       <c r="M28" s="1">
         <v>14</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="N28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -2715,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>61</v>
@@ -2747,16 +3288,36 @@
       <c r="M29" s="1">
         <v>13</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="N29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
@@ -2771,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>60</v>
@@ -2803,16 +3364,36 @@
       <c r="M30" s="1">
         <v>12</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="N30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
@@ -2827,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>59</v>
@@ -2859,16 +3440,36 @@
       <c r="M31" s="1">
         <v>11</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="N31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
@@ -2883,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>58</v>
@@ -2915,16 +3516,36 @@
       <c r="M32" s="1">
         <v>10</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="N32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
@@ -2939,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>57</v>
@@ -2971,16 +3592,36 @@
       <c r="M33" s="1">
         <v>9</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="N33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
@@ -2995,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>56</v>
@@ -3027,16 +3668,36 @@
       <c r="M34" s="1">
         <v>8</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
+      <c r="N34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -3051,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>55</v>
@@ -3083,16 +3744,36 @@
       <c r="M35" s="1">
         <v>7</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="N35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
@@ -3139,16 +3820,36 @@
       <c r="M36" s="1">
         <v>6</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="N36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
@@ -3195,16 +3896,36 @@
       <c r="M37" s="1">
         <v>5</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="N37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
@@ -3251,16 +3972,36 @@
       <c r="M38" s="1">
         <v>4</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="N38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -3307,16 +4048,36 @@
       <c r="M39" s="1">
         <v>3</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
@@ -3363,16 +4124,36 @@
       <c r="M40" s="1">
         <v>2</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
+      <c r="N40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -3419,16 +4200,36 @@
       <c r="M41" s="1">
         <v>1</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
+      <c r="N41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
@@ -3440,7 +4241,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
@@ -3514,15 +4315,33 @@
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="4" t="s">
         <v>229</v>
@@ -3566,18 +4385,38 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>31</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="M46" s="1">
         <v>37</v>
       </c>
@@ -3641,18 +4480,38 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>32</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="M47" s="1">
         <v>39</v>
       </c>
@@ -3697,18 +4556,38 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>33</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="M48" s="1">
         <v>38</v>
       </c>
@@ -3753,18 +4632,38 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>22</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="M49" s="1">
         <v>34</v>
       </c>
@@ -3828,18 +4727,38 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>23</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="M50" s="1">
         <v>36</v>
       </c>
@@ -3884,18 +4803,38 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>24</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="M51" s="1">
         <v>35</v>
       </c>
@@ -3940,18 +4879,38 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>28</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="M52" s="1">
         <v>31</v>
       </c>
@@ -4015,18 +4974,38 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>29</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="M53" s="1">
         <v>32</v>
       </c>
@@ -4071,18 +5050,38 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>30</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M54" s="1">
         <v>33</v>
       </c>
@@ -4127,18 +5126,38 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>37</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="M55" s="1">
         <v>28</v>
       </c>
@@ -4202,18 +5221,38 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>38</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M56" s="1">
         <v>29</v>
       </c>
@@ -4258,18 +5297,38 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>39</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M57" s="1">
         <v>30</v>
       </c>
@@ -4314,18 +5373,38 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>34</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M58" s="1">
         <v>25</v>
       </c>
@@ -4389,18 +5468,38 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>35</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M59" s="1">
         <v>26</v>
       </c>
@@ -4445,18 +5544,38 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>36</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="M60" s="1">
         <v>27</v>
       </c>
@@ -4501,18 +5620,38 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>25</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M61" s="1">
         <v>22</v>
       </c>
@@ -4576,18 +5715,38 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>26</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M62" s="1">
         <v>23</v>
       </c>
@@ -4632,18 +5791,38 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>27</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="M63" s="1">
         <v>24</v>
       </c>
@@ -4690,16 +5869,36 @@
       <c r="A64" s="1">
         <v>19</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="M64" s="1">
         <v>19</v>
       </c>
@@ -4763,18 +5962,38 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>20</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="M65" s="1">
         <v>21</v>
       </c>
@@ -4819,18 +6038,38 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>21</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M66" s="1">
         <v>20</v>
       </c>
@@ -4875,18 +6114,38 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>16</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="M67" s="1">
         <v>13</v>
       </c>
@@ -4950,18 +6209,38 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>17</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="M68" s="1">
         <v>14</v>
       </c>
@@ -5006,18 +6285,38 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>18</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M69" s="1">
         <v>15</v>
       </c>
@@ -5062,18 +6361,38 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>10</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="M70" s="1">
         <v>16</v>
       </c>
@@ -5137,18 +6456,38 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>11</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M71" s="1">
         <v>17</v>
       </c>
@@ -5193,18 +6532,38 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>12</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="M72" s="1">
         <v>18</v>
       </c>
@@ -5251,16 +6610,36 @@
       <c r="A73" s="1">
         <v>4</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M73" s="1">
         <v>4</v>
       </c>
@@ -5326,16 +6705,36 @@
       <c r="A74" s="1">
         <v>5</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="B74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M74" s="1">
         <v>5</v>
       </c>
@@ -5382,16 +6781,36 @@
       <c r="A75" s="1">
         <v>6</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M75" s="1">
         <v>6</v>
       </c>
@@ -5436,18 +6855,38 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>13</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="M76" s="1">
         <v>7</v>
       </c>
@@ -5511,18 +6950,38 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>14</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="M77" s="1">
         <v>8</v>
       </c>
@@ -5567,18 +7026,38 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>15</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M78" s="1">
         <v>9</v>
       </c>
@@ -5622,6 +7101,39 @@
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="M79" s="1">
         <v>10</v>
       </c>
@@ -5684,6 +7196,39 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M80" s="1">
         <v>11</v>
       </c>
@@ -5726,7 +7271,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="M81" s="1">
         <v>12</v>
       </c>
@@ -5769,9 +7347,112 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="M84" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1">
@@ -5811,7 +7492,7 @@
       </c>
       <c r="AF84" s="1"/>
     </row>
-    <row r="85" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M85" s="1"/>
       <c r="N85" s="4" t="s">
         <v>229</v>
@@ -5853,7 +7534,7 @@
       </c>
       <c r="AF85" s="1"/>
     </row>
-    <row r="86" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M86" s="1">
         <v>31</v>
       </c>
@@ -5915,7 +7596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M87" s="1">
         <v>32</v>
       </c>
@@ -5950,7 +7631,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M88" s="1">
         <v>33</v>
       </c>
@@ -5985,7 +7666,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M89" s="1">
         <v>22</v>
       </c>
@@ -6047,7 +7728,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M90" s="1">
         <v>23</v>
       </c>
@@ -6082,7 +7763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M91" s="1">
         <v>24</v>
       </c>
@@ -6117,7 +7798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M92" s="1">
         <v>28</v>
       </c>
@@ -6179,7 +7860,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M93" s="1">
         <v>29</v>
       </c>
@@ -6214,7 +7895,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M94" s="1">
         <v>30</v>
       </c>
@@ -6249,7 +7930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M95" s="1">
         <v>37</v>
       </c>
@@ -6311,7 +7992,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="13:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M96" s="1">
         <v>38</v>
       </c>
@@ -7421,6 +9102,3710 @@
     </row>
     <row r="119" spans="13:32" x14ac:dyDescent="0.25">
       <c r="T119" s="5"/>
+    </row>
+    <row r="121" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1">
+        <v>2</v>
+      </c>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1">
+        <v>3</v>
+      </c>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1">
+        <v>4</v>
+      </c>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1">
+        <v>5</v>
+      </c>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF121" s="1"/>
+    </row>
+    <row r="122" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+      <c r="N122" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="1"/>
+    </row>
+    <row r="123" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M123" s="1">
+        <v>3</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P123" s="3">
+        <v>235</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R123" s="3">
+        <v>236</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T123" s="3">
+        <v>237</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V123" s="3">
+        <v>238</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X123" s="3">
+        <v>239</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z123" s="3">
+        <v>240</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB123" s="3">
+        <v>241</v>
+      </c>
+      <c r="AC123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD123" s="3">
+        <v>242</v>
+      </c>
+      <c r="AE123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF123">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M124" s="1">
+        <v>2</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R124" s="3"/>
+      <c r="S124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T124" s="3"/>
+      <c r="U124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V124" s="3"/>
+      <c r="W124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R125" s="3"/>
+      <c r="S125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T125" s="3"/>
+      <c r="U125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V125" s="3"/>
+      <c r="W125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M126" s="1">
+        <v>6</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P126" s="3">
+        <v>244</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R126" s="3">
+        <v>245</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T126" s="3">
+        <v>246</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V126" s="3">
+        <v>247</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X126" s="3">
+        <v>248</v>
+      </c>
+      <c r="Y126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z126" s="3">
+        <v>249</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB126" s="3">
+        <v>250</v>
+      </c>
+      <c r="AC126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD126" s="3">
+        <v>251</v>
+      </c>
+      <c r="AE126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF126">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M127" s="1">
+        <v>5</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R127" s="3"/>
+      <c r="S127" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T127" s="3"/>
+      <c r="U127" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V127" s="3"/>
+      <c r="W127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB127" s="3"/>
+      <c r="AC127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M128" s="1">
+        <v>4</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R128" s="3"/>
+      <c r="S128" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T128" s="3"/>
+      <c r="U128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V128" s="3"/>
+      <c r="W128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB128" s="3"/>
+      <c r="AC128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M129" s="1">
+        <v>9</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P129" s="3">
+        <v>253</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R129" s="3">
+        <v>254</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T129" s="3">
+        <v>255</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V129" s="3">
+        <v>256</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X129" s="3">
+        <v>257</v>
+      </c>
+      <c r="Y129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z129" s="3">
+        <v>258</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB129" s="3">
+        <v>259</v>
+      </c>
+      <c r="AC129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD129" s="3">
+        <v>260</v>
+      </c>
+      <c r="AE129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF129">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M130" s="1">
+        <v>8</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R130" s="3"/>
+      <c r="S130" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T130" s="3"/>
+      <c r="U130" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V130" s="3"/>
+      <c r="W130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB130" s="3"/>
+      <c r="AC130" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M131" s="1">
+        <v>7</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R131" s="3"/>
+      <c r="S131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T131" s="3"/>
+      <c r="U131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V131" s="3"/>
+      <c r="W131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M132" s="1">
+        <v>12</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P132" s="3">
+        <v>262</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R132" s="3">
+        <v>263</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T132" s="3">
+        <v>264</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V132" s="3">
+        <v>265</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X132" s="3">
+        <v>266</v>
+      </c>
+      <c r="Y132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z132" s="3">
+        <v>267</v>
+      </c>
+      <c r="AA132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB132" s="3">
+        <v>268</v>
+      </c>
+      <c r="AC132" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD132" s="3">
+        <v>269</v>
+      </c>
+      <c r="AE132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF132">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M133" s="1">
+        <v>11</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R133" s="3"/>
+      <c r="S133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T133" s="3"/>
+      <c r="U133" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V133" s="3"/>
+      <c r="W133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M134" s="1">
+        <v>10</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R134" s="3"/>
+      <c r="S134" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T134" s="3"/>
+      <c r="U134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V134" s="3"/>
+      <c r="W134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M135" s="1">
+        <v>15</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P135" s="3">
+        <v>271</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R135" s="3">
+        <v>272</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T135" s="3">
+        <v>273</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V135" s="3">
+        <v>274</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X135" s="3">
+        <v>275</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z135" s="3">
+        <v>276</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB135" s="3">
+        <v>277</v>
+      </c>
+      <c r="AC135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD135" s="3">
+        <v>278</v>
+      </c>
+      <c r="AE135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF135">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M136" s="1">
+        <v>14</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R136" s="3"/>
+      <c r="S136" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T136" s="3"/>
+      <c r="U136" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V136" s="3"/>
+      <c r="W136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB136" s="3"/>
+      <c r="AC136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M137" s="1">
+        <v>13</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R137" s="3"/>
+      <c r="S137" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T137" s="3"/>
+      <c r="U137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V137" s="3"/>
+      <c r="W137" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M138" s="1">
+        <v>21</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P138" s="3">
+        <v>280</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R138" s="3">
+        <v>281</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T138" s="3">
+        <v>282</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V138" s="3">
+        <v>283</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X138" s="3">
+        <v>284</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z138" s="3">
+        <v>285</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB138" s="3">
+        <v>286</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD138" s="3">
+        <v>287</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF138">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M139" s="1">
+        <v>20</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R139" s="3"/>
+      <c r="S139" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T139" s="3"/>
+      <c r="U139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V139" s="3"/>
+      <c r="W139" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M140" s="1">
+        <v>19</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R140" s="3"/>
+      <c r="S140" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T140" s="3"/>
+      <c r="U140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V140" s="3"/>
+      <c r="W140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB140" s="3"/>
+      <c r="AC140" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M141" s="1">
+        <v>24</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P141" s="3">
+        <v>289</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R141" s="3">
+        <v>290</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T141" s="3">
+        <v>291</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V141" s="3">
+        <v>292</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X141" s="3">
+        <v>293</v>
+      </c>
+      <c r="Y141" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z141" s="3">
+        <v>294</v>
+      </c>
+      <c r="AA141" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB141" s="3">
+        <v>295</v>
+      </c>
+      <c r="AC141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD141" s="3">
+        <v>296</v>
+      </c>
+      <c r="AE141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF141">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M142" s="1">
+        <v>23</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R142" s="3"/>
+      <c r="S142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T142" s="3"/>
+      <c r="U142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V142" s="3"/>
+      <c r="W142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB142" s="3"/>
+      <c r="AC142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M143" s="1">
+        <v>22</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R143" s="3"/>
+      <c r="S143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T143" s="3"/>
+      <c r="U143" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V143" s="3"/>
+      <c r="W143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z143" s="3"/>
+      <c r="AA143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB143" s="3"/>
+      <c r="AC143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M144" s="1">
+        <v>18</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P144" s="3">
+        <v>298</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R144" s="3">
+        <v>299</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T144" s="3">
+        <v>300</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V144" s="3">
+        <v>301</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X144" s="3">
+        <v>302</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z144" s="3">
+        <v>303</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB144" s="3">
+        <v>304</v>
+      </c>
+      <c r="AC144" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD144" s="3">
+        <v>305</v>
+      </c>
+      <c r="AE144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF144">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M145" s="1">
+        <v>17</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R145" s="3"/>
+      <c r="S145" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T145" s="3"/>
+      <c r="U145" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V145" s="3"/>
+      <c r="W145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M146" s="1">
+        <v>16</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R146" s="3"/>
+      <c r="S146" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T146" s="3"/>
+      <c r="U146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V146" s="3"/>
+      <c r="W146" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB146" s="3"/>
+      <c r="AC146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M147" s="1">
+        <v>33</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P147" s="3">
+        <v>167</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R147" s="3">
+        <v>168</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T147" s="3">
+        <v>169</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V147" s="3">
+        <v>170</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X147" s="3">
+        <v>171</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z147" s="3">
+        <v>311</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB147" s="3">
+        <v>312</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD147" s="3">
+        <v>313</v>
+      </c>
+      <c r="AE147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF147">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M148" s="1">
+        <v>32</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R148" s="3"/>
+      <c r="S148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T148" s="3"/>
+      <c r="U148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V148" s="3"/>
+      <c r="W148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M149" s="1">
+        <v>31</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R149" s="3"/>
+      <c r="S149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T149" s="3"/>
+      <c r="U149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V149" s="3"/>
+      <c r="W149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z149" s="3"/>
+      <c r="AA149" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB149" s="3"/>
+      <c r="AC149" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M150" s="1">
+        <v>28</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P150" s="3">
+        <v>316</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R150" s="3">
+        <v>317</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T150" s="3">
+        <v>307</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V150" s="3">
+        <v>308</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="X150" s="3">
+        <v>309</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z150" s="3">
+        <v>310</v>
+      </c>
+      <c r="AA150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB150" s="3">
+        <v>361</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD150" s="3">
+        <v>362</v>
+      </c>
+      <c r="AE150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF150">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="151" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M151" s="1">
+        <v>29</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R151" s="3"/>
+      <c r="S151" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T151" s="3"/>
+      <c r="U151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V151" s="3"/>
+      <c r="W151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB151" s="3"/>
+      <c r="AC151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M152" s="1">
+        <v>30</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R152" s="3"/>
+      <c r="S152" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T152" s="3"/>
+      <c r="U152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V152" s="3"/>
+      <c r="W152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB152" s="3"/>
+      <c r="AC152" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M153" s="1">
+        <v>27</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P153" s="3">
+        <v>364</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R153" s="3">
+        <v>365</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T153" s="3">
+        <v>366</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V153" s="3">
+        <v>367</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X153" s="3">
+        <v>368</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z153" s="3"/>
+      <c r="AA153" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB153" s="3"/>
+      <c r="AC153" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M154" s="1">
+        <v>26</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R154" s="3"/>
+      <c r="S154" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T154" s="3"/>
+      <c r="U154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V154" s="3"/>
+      <c r="W154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB154" s="3"/>
+      <c r="AC154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M155" s="1">
+        <v>25</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R155" s="3"/>
+      <c r="S155" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T155" s="3"/>
+      <c r="U155" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V155" s="3"/>
+      <c r="W155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB155" s="3"/>
+      <c r="AC155" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M158" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1">
+        <v>1</v>
+      </c>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1">
+        <v>2</v>
+      </c>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1">
+        <v>3</v>
+      </c>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1">
+        <v>4</v>
+      </c>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1">
+        <v>5</v>
+      </c>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z158" s="1"/>
+      <c r="AA158" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB158" s="1"/>
+      <c r="AC158" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF158" s="1"/>
+    </row>
+    <row r="159" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M159" s="1"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB159" s="1"/>
+      <c r="AC159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF159" s="1"/>
+    </row>
+    <row r="160" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M160" s="1">
+        <v>37</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P160" s="3">
+        <v>332</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R160" s="3">
+        <v>47</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T160" s="3">
+        <v>48</v>
+      </c>
+      <c r="U160" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="V160" s="3">
+        <v>49</v>
+      </c>
+      <c r="W160" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="X160" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z160" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB160" s="3">
+        <v>52</v>
+      </c>
+      <c r="AC160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD160" s="3">
+        <v>53</v>
+      </c>
+      <c r="AE160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF160">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M161" s="1">
+        <v>39</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R161" s="3"/>
+      <c r="S161" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T161" s="3"/>
+      <c r="U161" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V161" s="3"/>
+      <c r="W161" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M162" s="1">
+        <v>38</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R162" s="3"/>
+      <c r="S162" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T162" s="3"/>
+      <c r="U162" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V162" s="3"/>
+      <c r="W162" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M163" s="1">
+        <v>34</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P163" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="R163" s="3">
+        <v>65</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="T163" s="3">
+        <v>66</v>
+      </c>
+      <c r="U163" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V163" s="3">
+        <v>67</v>
+      </c>
+      <c r="W163" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X163" s="3">
+        <v>68</v>
+      </c>
+      <c r="Y163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z163" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA163" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB163" s="3">
+        <v>70</v>
+      </c>
+      <c r="AC163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD163" s="3">
+        <v>71</v>
+      </c>
+      <c r="AE163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF163">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M164" s="1">
+        <v>36</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R164" s="3"/>
+      <c r="S164" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="T164" s="3"/>
+      <c r="U164" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V164" s="3"/>
+      <c r="W164" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M165" s="1">
+        <v>35</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R165" s="3"/>
+      <c r="S165" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T165" s="3"/>
+      <c r="U165" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V165" s="3"/>
+      <c r="W165" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB165" s="3"/>
+      <c r="AC165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M166" s="1">
+        <v>31</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P166" s="3">
+        <v>344</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R166" s="3">
+        <v>345</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T166" s="3">
+        <v>135</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V166" s="3">
+        <v>172</v>
+      </c>
+      <c r="W166" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X166" s="3">
+        <v>173</v>
+      </c>
+      <c r="Y166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z166" s="3">
+        <v>174</v>
+      </c>
+      <c r="AA166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB166" s="3">
+        <v>175</v>
+      </c>
+      <c r="AC166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD166" s="3">
+        <v>176</v>
+      </c>
+      <c r="AE166" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF166">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="167" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M167" s="1">
+        <v>32</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R167" s="3"/>
+      <c r="S167" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="T167" s="3"/>
+      <c r="U167" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V167" s="3"/>
+      <c r="W167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M168" s="1">
+        <v>33</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R168" s="3"/>
+      <c r="S168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T168" s="3"/>
+      <c r="U168" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="V168" s="3"/>
+      <c r="W168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M169" s="1">
+        <v>28</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P169" s="3">
+        <v>335</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R169" s="3">
+        <v>347</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T169" s="3">
+        <v>134</v>
+      </c>
+      <c r="U169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V169" s="3">
+        <v>339</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X169" s="3">
+        <v>336</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z169" s="3">
+        <v>348</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB169" s="3">
+        <v>341</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD169" s="3">
+        <v>337</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF169">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M170" s="1">
+        <v>29</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R170" s="3"/>
+      <c r="S170" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T170" s="3"/>
+      <c r="U170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V170" s="3"/>
+      <c r="W170" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M171" s="1">
+        <v>30</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R171" s="3"/>
+      <c r="S171" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T171" s="3"/>
+      <c r="U171" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V171" s="3"/>
+      <c r="W171" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M172" s="1">
+        <v>25</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P172" s="3">
+        <v>338</v>
+      </c>
+      <c r="Q172" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R172" s="3">
+        <v>340</v>
+      </c>
+      <c r="S172" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T172" s="3">
+        <v>343</v>
+      </c>
+      <c r="U172" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V172" s="3">
+        <v>349</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="X172" s="3">
+        <v>350</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z172" s="3">
+        <v>351</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB172" s="3">
+        <v>353</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD172" s="3">
+        <v>356</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF172">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M173" s="1">
+        <v>26</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R173" s="3"/>
+      <c r="S173" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T173" s="3"/>
+      <c r="U173" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V173" s="3"/>
+      <c r="W173" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M174" s="1">
+        <v>27</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R174" s="3"/>
+      <c r="S174" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T174" s="3"/>
+      <c r="U174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V174" s="3"/>
+      <c r="W174" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M175" s="1">
+        <v>22</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P175" s="3">
+        <v>91</v>
+      </c>
+      <c r="Q175" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R175" s="3">
+        <v>92</v>
+      </c>
+      <c r="S175" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T175" s="3">
+        <v>93</v>
+      </c>
+      <c r="U175" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V175" s="3">
+        <v>94</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X175" s="3">
+        <v>95</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z175" s="3">
+        <v>96</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB175" s="3">
+        <v>97</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD175" s="3">
+        <v>98</v>
+      </c>
+      <c r="AE175" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF175">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M176" s="1">
+        <v>23</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R176" s="3"/>
+      <c r="S176" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T176" s="3"/>
+      <c r="U176" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V176" s="3"/>
+      <c r="W176" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X176" s="3"/>
+      <c r="Y176" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z176" s="3"/>
+      <c r="AA176" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M177" s="1">
+        <v>24</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R177" s="3"/>
+      <c r="S177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T177" s="3"/>
+      <c r="U177" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V177" s="3"/>
+      <c r="W177" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X177" s="3"/>
+      <c r="Y177" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z177" s="3"/>
+      <c r="AA177" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB177" s="3"/>
+      <c r="AC177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M178" s="1">
+        <v>19</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P178" s="3">
+        <v>127</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R178" s="3">
+        <v>128</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T178" s="3">
+        <v>129</v>
+      </c>
+      <c r="U178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V178" s="3">
+        <v>130</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X178" s="3">
+        <v>131</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z178" s="3">
+        <v>132</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB178" s="3">
+        <v>133</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD178" s="3">
+        <v>334</v>
+      </c>
+      <c r="AE178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF178">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="179" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M179" s="1">
+        <v>21</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R179" s="3"/>
+      <c r="S179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T179" s="3"/>
+      <c r="U179" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V179" s="3"/>
+      <c r="W179" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X179" s="3"/>
+      <c r="Y179" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z179" s="3"/>
+      <c r="AA179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB179" s="3"/>
+      <c r="AC179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M180" s="1">
+        <v>20</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R180" s="3"/>
+      <c r="S180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T180" s="3"/>
+      <c r="U180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V180" s="3"/>
+      <c r="W180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD180" s="3"/>
+      <c r="AE180" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M181" s="1">
+        <v>13</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P181" s="3">
+        <v>118</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R181" s="3">
+        <v>119</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T181" s="3">
+        <v>120</v>
+      </c>
+      <c r="U181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V181" s="3">
+        <v>121</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X181" s="3">
+        <v>122</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z181" s="3">
+        <v>123</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB181" s="3">
+        <v>124</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD181" s="3">
+        <v>125</v>
+      </c>
+      <c r="AE181" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF181">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M182" s="1">
+        <v>14</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R182" s="3"/>
+      <c r="S182" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T182" s="3"/>
+      <c r="U182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V182" s="3"/>
+      <c r="W182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X182" s="3"/>
+      <c r="Y182" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD182" s="3"/>
+      <c r="AE182" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M183" s="1">
+        <v>15</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R183" s="3"/>
+      <c r="S183" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T183" s="3"/>
+      <c r="U183" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V183" s="3"/>
+      <c r="W183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD183" s="3"/>
+      <c r="AE183" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M184" s="1">
+        <v>16</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P184" s="3">
+        <v>136</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R184" s="3">
+        <v>137</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T184" s="3">
+        <v>138</v>
+      </c>
+      <c r="U184" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V184" s="3">
+        <v>139</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X184" s="3">
+        <v>140</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z184" s="3">
+        <v>141</v>
+      </c>
+      <c r="AA184" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB184" s="3">
+        <v>142</v>
+      </c>
+      <c r="AC184" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD184" s="3">
+        <v>143</v>
+      </c>
+      <c r="AE184" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF184">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M185" s="1">
+        <v>17</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R185" s="3"/>
+      <c r="S185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T185" s="3"/>
+      <c r="U185" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V185" s="3"/>
+      <c r="W185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z185" s="3"/>
+      <c r="AA185" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M186" s="1">
+        <v>18</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R186" s="3"/>
+      <c r="S186" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T186" s="3"/>
+      <c r="U186" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V186" s="3"/>
+      <c r="W186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z186" s="3"/>
+      <c r="AA186" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB186" s="3"/>
+      <c r="AC186" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD186" s="3"/>
+      <c r="AE186" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M187" s="1">
+        <v>4</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P187" s="3">
+        <v>354</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R187" s="3">
+        <v>355</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T187" s="3">
+        <v>357</v>
+      </c>
+      <c r="U187" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V187" s="3">
+        <v>358</v>
+      </c>
+      <c r="W187" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X187" s="3">
+        <v>163</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z187" s="3">
+        <v>164</v>
+      </c>
+      <c r="AA187" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB187" s="3">
+        <v>165</v>
+      </c>
+      <c r="AC187" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD187" s="3">
+        <v>166</v>
+      </c>
+      <c r="AE187" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF187">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M188" s="1">
+        <v>5</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R188" s="3"/>
+      <c r="S188" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T188" s="3"/>
+      <c r="U188" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V188" s="3"/>
+      <c r="W188" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z188" s="3"/>
+      <c r="AA188" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD188" s="3"/>
+      <c r="AE188" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M189" s="1">
+        <v>6</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R189" s="3"/>
+      <c r="S189" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T189" s="3"/>
+      <c r="U189" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V189" s="3"/>
+      <c r="W189" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD189" s="3"/>
+      <c r="AE189" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M190" s="1">
+        <v>7</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P190" s="3">
+        <v>384</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R190" s="3">
+        <v>385</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T190" s="3">
+        <v>386</v>
+      </c>
+      <c r="U190" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V190" s="3">
+        <v>387</v>
+      </c>
+      <c r="W190" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X190" s="3">
+        <v>388</v>
+      </c>
+      <c r="Y190" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z190" s="3">
+        <v>389</v>
+      </c>
+      <c r="AA190" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB190" s="3">
+        <v>390</v>
+      </c>
+      <c r="AC190" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD190" s="3">
+        <v>391</v>
+      </c>
+      <c r="AE190" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF190">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M191" s="1">
+        <v>8</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" s="3"/>
+      <c r="S191" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T191" s="3"/>
+      <c r="U191" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V191" s="3"/>
+      <c r="W191" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z191" s="3"/>
+      <c r="AA191" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD191" s="3"/>
+      <c r="AE191" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M192" s="1">
+        <v>9</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" s="3"/>
+      <c r="S192" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T192" s="3"/>
+      <c r="U192" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V192" s="3"/>
+      <c r="W192" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z192" s="3"/>
+      <c r="AA192" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB192" s="3"/>
+      <c r="AC192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD192" s="3"/>
+      <c r="AE192" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M193" s="1">
+        <v>10</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P193" s="3">
+        <v>393</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R193" s="3">
+        <v>394</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T193" s="3">
+        <v>395</v>
+      </c>
+      <c r="U193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V193" s="3">
+        <v>396</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X193" s="3">
+        <v>397</v>
+      </c>
+      <c r="Y193" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z193" s="3">
+        <v>398</v>
+      </c>
+      <c r="AA193" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB193" s="3">
+        <v>399</v>
+      </c>
+      <c r="AC193" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD193" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE193" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF193">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M194" s="1">
+        <v>11</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R194" s="3"/>
+      <c r="S194" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T194" s="3"/>
+      <c r="U194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V194" s="3"/>
+      <c r="W194" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X194" s="3"/>
+      <c r="Y194" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z194" s="3"/>
+      <c r="AA194" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB194" s="3"/>
+      <c r="AC194" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD194" s="3"/>
+      <c r="AE194" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M195" s="1">
+        <v>12</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R195" s="3"/>
+      <c r="S195" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T195" s="3"/>
+      <c r="U195" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V195" s="3"/>
+      <c r="W195" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="X195" s="3"/>
+      <c r="Y195" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z195" s="3"/>
+      <c r="AA195" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB195" s="3"/>
+      <c r="AC195" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD195" s="3"/>
+      <c r="AE195" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M196" s="1">
+        <v>1</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P196" s="3">
+        <v>402</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R196" s="3">
+        <v>403</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T196" s="3">
+        <v>404</v>
+      </c>
+      <c r="U196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V196" s="3">
+        <v>405</v>
+      </c>
+      <c r="W196" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X196" s="3">
+        <v>406</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z196" s="3">
+        <v>407</v>
+      </c>
+      <c r="AA196" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB196" s="3">
+        <v>408</v>
+      </c>
+      <c r="AC196" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD196" s="3"/>
+      <c r="AE196" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M197" s="1">
+        <v>2</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R197" s="3"/>
+      <c r="S197" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T197" s="3"/>
+      <c r="U197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V197" s="3"/>
+      <c r="W197" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X197" s="3"/>
+      <c r="Y197" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z197" s="3"/>
+      <c r="AA197" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB197" s="3"/>
+      <c r="AC197" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD197" s="3"/>
+      <c r="AE197" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M198" s="1">
+        <v>3</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R198" s="3"/>
+      <c r="S198" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T198" s="3"/>
+      <c r="U198" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V198" s="3"/>
+      <c r="W198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X198" s="3"/>
+      <c r="Y198" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z198" s="3"/>
+      <c r="AA198" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB198" s="3"/>
+      <c r="AC198" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD198" s="3"/>
+      <c r="AE198" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/led_register_mappings_v2.xlsx
+++ b/hardware/led_register_mappings_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29270128-0DEB-4671-A4C6-CB7062728D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8517499B-0A54-473C-A7B8-42CFB2B597B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{54825337-5B42-4940-B27B-8F4016375D87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{54825337-5B42-4940-B27B-8F4016375D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC9F51E-505F-4752-A582-E5A633FBEC92}">
   <dimension ref="A1:AF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+    <sheetView tabSelected="1" topLeftCell="I41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
